--- a/expense_summary.xlsx
+++ b/expense_summary.xlsx
@@ -200,12 +200,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Monthly Expenses'!$B$22:$B$28</f>
+              <f>'Monthly Expenses'!$B$24:$B$30</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Monthly Expenses'!$D$22:$D$28</f>
+              <f>'Monthly Expenses'!$D$24:$D$30</f>
             </numRef>
           </val>
         </ser>
@@ -228,7 +228,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>21</row>
+      <row>23</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="3600000" cy="2880000"/>
@@ -538,7 +538,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,7 +577,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>15 August 2024</t>
+          <t>18 August 2024</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -597,7 +597,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>15 August 2024</t>
+          <t>18 August 2024</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -617,7 +617,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>15 August 2024</t>
+          <t>18 August 2024</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -637,7 +637,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>15 August 2024</t>
+          <t>18 August 2024</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>15 August 2024</t>
+          <t>18 August 2024</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>15 August 2024</t>
+          <t>18 August 2024</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>15 August 2024</t>
+          <t>18 August 2024</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -717,7 +717,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>15 August 2024</t>
+          <t>18 August 2024</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -737,7 +737,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>15 August 2024</t>
+          <t>18 August 2024</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -757,7 +757,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>15 August 2024</t>
+          <t>18 August 2024</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -777,27 +777,27 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>15 August 2024</t>
+          <t>18 August 2024</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>isu</t>
+          <t>bed</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>15 August 2024</t>
+          <t>18 August 2024</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -817,7 +817,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>15 August 2024</t>
+          <t>18 August 2024</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -834,115 +834,155 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17">
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>Total Budget:</t>
-        </is>
-      </c>
-      <c r="D17" s="4" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>Total Spent:</t>
-        </is>
-      </c>
-      <c r="D18" s="4" t="n">
-        <v>1119</v>
-      </c>
-    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>18 August 2024</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>isu</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>18 August 2024</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>iphone</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17"/>
+    <row r="18"/>
     <row r="19">
       <c r="C19" s="3" t="inlineStr">
         <is>
+          <t>Total Budget:</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>Total Spent:</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" s="3" t="inlineStr">
+        <is>
           <t>Remaining Budget:</t>
         </is>
       </c>
-      <c r="D19" s="4" t="n">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22">
-      <c r="B22" s="4" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="4" t="inlineStr">
-        <is>
-          <t>Entertainment</t>
-        </is>
-      </c>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n">
-        <v>107</v>
-      </c>
-    </row>
+      <c r="D21" s="4" t="n">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="22"/>
+    <row r="23"/>
     <row r="24">
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>Transportation</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="C24" s="5" t="n"/>
       <c r="D24" s="5" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>Rent</t>
+          <t>Entertainment</t>
         </is>
       </c>
       <c r="C25" s="5" t="n"/>
       <c r="D25" s="5" t="n">
-        <v>730</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Transportation</t>
         </is>
       </c>
       <c r="C26" s="5" t="n"/>
       <c r="D26" s="5" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="C27" s="5" t="n"/>
       <c r="D27" s="5" t="n">
-        <v>30</v>
+        <v>730</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>Remaining Budget</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="C28" s="5" t="n"/>
       <c r="D28" s="5" t="n">
-        <v>881</v>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n"/>
+      <c r="D29" s="5" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>Remaining Budget</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n"/>
+      <c r="D30" s="5" t="n">
+        <v>631</v>
       </c>
     </row>
   </sheetData>

--- a/expense_summary.xlsx
+++ b/expense_summary.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,6 +31,18 @@
     </font>
     <font>
       <b val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00000000"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="001F4E78"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FF0000"/>
     </font>
   </fonts>
   <fills count="5">
@@ -77,7 +89,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -85,6 +97,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -200,12 +221,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Monthly Expenses'!$B$24:$B$30</f>
+              <f>'Monthly Expenses'!$B$27:$B$33</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Monthly Expenses'!$D$24:$D$30</f>
+              <f>'Monthly Expenses'!$D$27:$D$33</f>
             </numRef>
           </val>
         </ser>
@@ -228,7 +249,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>23</row>
+      <row>26</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="3600000" cy="2880000"/>
@@ -538,7 +559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,16 +643,16 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Entertainment</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>hbo</t>
+          <t>water</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -647,11 +668,11 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>netflix</t>
+          <t>hbo</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -667,11 +688,11 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>bar</t>
+          <t>netflix</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -687,11 +708,11 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>nba game</t>
+          <t>bar</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -702,16 +723,16 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Transportation</t>
+          <t>Entertainment</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>nba game</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -722,16 +743,16 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Rent</t>
+          <t>Entertainment</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>rent</t>
+          <t>mouse</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>730</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -742,16 +763,16 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Transportation</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>school materials</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -762,16 +783,16 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>table</t>
+          <t>rent</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>100</v>
+        <v>730</v>
       </c>
     </row>
     <row r="12">
@@ -782,16 +803,16 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>bed</t>
+          <t>keys</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>200</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -802,16 +823,16 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>isu</t>
+          <t>school materials</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +843,16 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>isu</t>
+          <t>table</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
@@ -842,16 +863,16 @@
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>isu</t>
+          <t>bed</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16">
@@ -867,122 +888,182 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>isu</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>18 August 2024</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>isu</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>18 August 2024</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>isu</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>18 August 2024</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>iphone</t>
         </is>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D19" s="2" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19">
-      <c r="C19" s="3" t="inlineStr">
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22">
+      <c r="C22" s="3" t="inlineStr">
         <is>
           <t>Total Budget:</t>
         </is>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D22" s="4" t="n">
         <v>2000</v>
       </c>
     </row>
-    <row r="20">
-      <c r="C20" s="3" t="inlineStr">
+    <row r="23">
+      <c r="C23" s="3" t="inlineStr">
         <is>
           <t>Total Spent:</t>
         </is>
       </c>
-      <c r="D20" s="4" t="n">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="C21" s="3" t="inlineStr">
+      <c r="D23" s="5" t="n">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" s="3" t="inlineStr">
         <is>
           <t>Remaining Budget:</t>
         </is>
       </c>
-      <c r="D21" s="4" t="n">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24">
-      <c r="B24" s="4" t="inlineStr">
+      <c r="D24" s="6" t="n">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27">
+      <c r="B27" s="7" t="inlineStr">
         <is>
           <t>Food</t>
         </is>
       </c>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="4" t="inlineStr">
+      <c r="C27" s="8" t="n"/>
+      <c r="D27" s="8" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="7" t="inlineStr">
         <is>
           <t>Entertainment</t>
         </is>
       </c>
-      <c r="C25" s="5" t="n"/>
-      <c r="D25" s="5" t="n">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="4" t="inlineStr">
+      <c r="C28" s="8" t="n"/>
+      <c r="D28" s="8" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="7" t="inlineStr">
         <is>
           <t>Transportation</t>
         </is>
       </c>
-      <c r="C26" s="5" t="n"/>
-      <c r="D26" s="5" t="n">
+      <c r="C29" s="8" t="n"/>
+      <c r="D29" s="8" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="27">
-      <c r="B27" s="4" t="inlineStr">
+    <row r="30">
+      <c r="B30" s="7" t="inlineStr">
         <is>
           <t>Rent</t>
         </is>
       </c>
-      <c r="C27" s="5" t="n"/>
-      <c r="D27" s="5" t="n">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="4" t="inlineStr">
+      <c r="C30" s="8" t="n"/>
+      <c r="D30" s="8" t="n">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="7" t="inlineStr">
         <is>
           <t>Utilities</t>
         </is>
       </c>
-      <c r="C28" s="5" t="n"/>
-      <c r="D28" s="5" t="n">
+      <c r="C31" s="8" t="n"/>
+      <c r="D31" s="8" t="n">
         <v>330</v>
       </c>
     </row>
-    <row r="29">
-      <c r="B29" s="4" t="inlineStr">
+    <row r="32">
+      <c r="B32" s="7" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="C29" s="5" t="n"/>
-      <c r="D29" s="5" t="n">
+      <c r="C32" s="8" t="n"/>
+      <c r="D32" s="8" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="30">
-      <c r="B30" s="4" t="inlineStr">
+    <row r="33">
+      <c r="B33" s="7" t="inlineStr">
         <is>
           <t>Remaining Budget</t>
         </is>
       </c>
-      <c r="C30" s="5" t="n"/>
-      <c r="D30" s="5" t="n">
-        <v>631</v>
+      <c r="C33" s="8" t="n"/>
+      <c r="D33" s="8" t="n">
+        <v>596</v>
       </c>
     </row>
   </sheetData>

--- a/expense_summary.xlsx
+++ b/expense_summary.xlsx
@@ -221,12 +221,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Monthly Expenses'!$B$27:$B$33</f>
+              <f>'Monthly Expenses'!$B$28:$B$34</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Monthly Expenses'!$D$27:$D$33</f>
+              <f>'Monthly Expenses'!$D$28:$D$34</f>
             </numRef>
           </val>
         </ser>
@@ -249,7 +249,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>26</row>
+      <row>27</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="3600000" cy="2880000"/>
@@ -559,7 +559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -663,16 +663,16 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Entertainment</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>hbo</t>
+          <t>chipotle</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -688,11 +688,11 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>netflix</t>
+          <t>hbo</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -708,11 +708,11 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>bar</t>
+          <t>netflix</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -728,11 +728,11 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>nba game</t>
+          <t>bar</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -748,11 +748,11 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>mouse</t>
+          <t>nba game</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
@@ -763,16 +763,16 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Transportation</t>
+          <t>Entertainment</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>gas</t>
+          <t>mouse</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -783,16 +783,16 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Rent</t>
+          <t>Transportation</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>rent</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>730</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -808,11 +808,11 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>keys</t>
+          <t>rent</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>15</v>
+        <v>730</v>
       </c>
     </row>
     <row r="13">
@@ -823,16 +823,16 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>school materials</t>
+          <t>keys</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -848,11 +848,11 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>table</t>
+          <t>school materials</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
@@ -868,11 +868,11 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>bed</t>
+          <t>table</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
@@ -883,16 +883,16 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>isu</t>
+          <t>bed</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17">
@@ -948,122 +948,142 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>isu</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>18 August 2024</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
           <t>iphone</t>
         </is>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D20" s="2" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="20"/>
     <row r="21"/>
-    <row r="22">
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>Total Budget:</t>
-        </is>
-      </c>
-      <c r="D22" s="4" t="n">
-        <v>2000</v>
-      </c>
-    </row>
+    <row r="22"/>
     <row r="23">
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>Total Spent:</t>
-        </is>
-      </c>
-      <c r="D23" s="5" t="n">
-        <v>1404</v>
+          <t>Total Budget:</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>2000</v>
       </c>
     </row>
     <row r="24">
       <c r="C24" s="3" t="inlineStr">
         <is>
+          <t>Total Spent:</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" s="3" t="inlineStr">
+        <is>
           <t>Remaining Budget:</t>
         </is>
       </c>
-      <c r="D24" s="6" t="n">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="25"/>
+      <c r="D25" s="6" t="n">
+        <v>583</v>
+      </c>
+    </row>
     <row r="26"/>
-    <row r="27">
-      <c r="B27" s="7" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="C27" s="8" t="n"/>
-      <c r="D27" s="8" t="n">
-        <v>72</v>
-      </c>
-    </row>
+    <row r="27"/>
     <row r="28">
       <c r="B28" s="7" t="inlineStr">
         <is>
-          <t>Entertainment</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="C28" s="8" t="n"/>
       <c r="D28" s="8" t="n">
-        <v>117</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="7" t="inlineStr">
         <is>
-          <t>Transportation</t>
+          <t>Entertainment</t>
         </is>
       </c>
       <c r="C29" s="8" t="n"/>
       <c r="D29" s="8" t="n">
-        <v>60</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="7" t="inlineStr">
         <is>
-          <t>Rent</t>
+          <t>Transportation</t>
         </is>
       </c>
       <c r="C30" s="8" t="n"/>
       <c r="D30" s="8" t="n">
-        <v>745</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="7" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="C31" s="8" t="n"/>
       <c r="D31" s="8" t="n">
-        <v>330</v>
+        <v>745</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="7" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="C32" s="8" t="n"/>
       <c r="D32" s="8" t="n">
-        <v>80</v>
+        <v>330</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="7" t="inlineStr">
         <is>
-          <t>Remaining Budget</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C33" s="8" t="n"/>
       <c r="D33" s="8" t="n">
-        <v>596</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="7" t="inlineStr">
+        <is>
+          <t>Remaining Budget</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n"/>
+      <c r="D34" s="8" t="n">
+        <v>583</v>
       </c>
     </row>
   </sheetData>

--- a/expense_summary.xlsx
+++ b/expense_summary.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,8 +498,62 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2023-08-10</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2023-08-10</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2023-08-10</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B3">
+  <conditionalFormatting sqref="B2:B6">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
